--- a/spliced/struggle/2023-03-25_18-15-13/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-13/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.859649509191513</v>
+        <v>-0.2141320705413827</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.330253005027771</v>
+        <v>-2.326400130987168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8296890035271645</v>
+        <v>-2.468529105186464</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1586722433567047</v>
+        <v>2.08137059211731</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09269879758358</v>
+        <v>-2.974608421325684</v>
       </c>
       <c r="H2" t="n">
-        <v>1.239292860031128</v>
+        <v>1.146135926246643</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.144926071166992</v>
+        <v>2.301481246948242</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.312361717224121</v>
+        <v>-1.784020185470581</v>
       </c>
       <c r="E3" t="n">
-        <v>1.558097973465919</v>
+        <v>0.5732603073120117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5314527750015259</v>
+        <v>-0.7811439037322998</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.102472648024559</v>
+        <v>1.68369734287262</v>
       </c>
       <c r="H3" t="n">
-        <v>3.775300025939941</v>
+        <v>-1.490358471870422</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9796496629714961</v>
+        <v>0.7297354936599727</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.501853108406068</v>
+        <v>-2.234472751617432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.805212467908859</v>
+        <v>-4.658630132675173</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.207833290100098</v>
+        <v>-0.4285219609737396</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.546391725540161</v>
+        <v>1.809230089187622</v>
       </c>
       <c r="H4" t="n">
-        <v>9.101892471313477</v>
+        <v>-1.255480766296387</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.113102197647095</v>
+        <v>1.63190019130707</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.100376844406128</v>
+        <v>-2.561783850193024</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09928292036056524</v>
+        <v>-1.591027021408075</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.078760862350464</v>
+        <v>-1.154382586479187</v>
       </c>
       <c r="G5" t="n">
-        <v>2.530203819274902</v>
+        <v>3.296534299850464</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.9534079432487488</v>
+        <v>-1.97553825378418</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.049683928489686</v>
+        <v>0.6863539814949051</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.358428567647934</v>
+        <v>-1.503557689487935</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1852286756038664</v>
+        <v>1.746999144554136</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.288772940635681</v>
+        <v>-1.183093309402466</v>
       </c>
       <c r="G6" t="n">
-        <v>2.325716733932495</v>
+        <v>0.8458956480026245</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.462411403656006</v>
+        <v>-1.687667965888977</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.391860485076905</v>
+        <v>0.2367095947265618</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.859747111797333</v>
+        <v>-1.311740666627883</v>
       </c>
       <c r="E7" t="n">
-        <v>1.326272606849671</v>
+        <v>-0.07715380191802312</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.502881169319153</v>
+        <v>-0.4327980279922485</v>
       </c>
       <c r="G7" t="n">
-        <v>1.458746194839478</v>
+        <v>2.791501522064209</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.515071392059326</v>
+        <v>-2.889545440673828</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.678943946957589</v>
+        <v>1.296695142984393</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.980456888675691</v>
+        <v>-3.332512527704244</v>
       </c>
       <c r="E8" t="n">
-        <v>1.464148312807084</v>
+        <v>-2.418631196022031</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.791514992713928</v>
+        <v>-2.166738986968994</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5442809462547302</v>
+        <v>1.760666370391846</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.954157948493957</v>
+        <v>-2.120465993881226</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.769195675849915</v>
+        <v>1.87941366434097</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7857580184936523</v>
+        <v>-4.668229699134821</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2256948947906494</v>
+        <v>-1.045372545719146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7409795522689819</v>
+        <v>1.305724501609802</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1438587605953216</v>
+        <v>0.0389426611363887</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7490735054016113</v>
+        <v>-1.967597007751465</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.243836656212808</v>
+        <v>0.3820920586585984</v>
       </c>
       <c r="D10" t="n">
-        <v>1.433182954788209</v>
+        <v>-1.311929136514663</v>
       </c>
       <c r="E10" t="n">
-        <v>3.148937374353411</v>
+        <v>0.04638075828551969</v>
       </c>
       <c r="F10" t="n">
-        <v>1.188132882118225</v>
+        <v>2.605340242385864</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4485278129577636</v>
+        <v>-0.3645338416099548</v>
       </c>
       <c r="H10" t="n">
-        <v>1.251510143280029</v>
+        <v>-0.5674937963485718</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.817864775657655</v>
+        <v>2.75743055343628</v>
       </c>
       <c r="D11" t="n">
-        <v>2.509267210960388</v>
+        <v>-3.144901037216187</v>
       </c>
       <c r="E11" t="n">
-        <v>1.027155995368958</v>
+        <v>4.137303829193115</v>
       </c>
       <c r="F11" t="n">
-        <v>1.944689512252808</v>
+        <v>-0.7612907886505127</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.833053827285766</v>
+        <v>2.151620149612427</v>
       </c>
       <c r="H11" t="n">
-        <v>2.259743213653564</v>
+        <v>0.1557706445455551</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3439646363258361</v>
+        <v>4.460695505142212</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1777501702308659</v>
+        <v>1.830066174268722</v>
       </c>
       <c r="E12" t="n">
-        <v>1.387071877717972</v>
+        <v>-0.1949661374092102</v>
       </c>
       <c r="F12" t="n">
-        <v>1.061225652694702</v>
+        <v>0.5158756971359253</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.514015913009644</v>
+        <v>-2.014939069747925</v>
       </c>
       <c r="H12" t="n">
-        <v>1.943009614944458</v>
+        <v>1.058934926986694</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.004268169403076193</v>
+        <v>-3.40113162994386</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.125015139579771</v>
+        <v>3.317261695861818</v>
       </c>
       <c r="E13" t="n">
-        <v>1.818426370620727</v>
+        <v>1.794482350349431</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3481931984424591</v>
+        <v>-0.7177666425704956</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.305850028991699</v>
+        <v>0.8080220222473145</v>
       </c>
       <c r="H13" t="n">
-        <v>2.452929496765137</v>
+        <v>1.101084589958191</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7684953808784497</v>
+        <v>0.008035421371476836</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6692355871200577</v>
+        <v>-0.4300747811794388</v>
       </c>
       <c r="E14" t="n">
-        <v>1.696532160043717</v>
+        <v>2.762799173593522</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.058629512786865</v>
+        <v>0.3738495409488678</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.416430234909058</v>
+        <v>-2.970790386199951</v>
       </c>
       <c r="H14" t="n">
-        <v>2.748740911483765</v>
+        <v>2.029447078704834</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.423688530921939</v>
+        <v>1.565377473831186</v>
       </c>
       <c r="D15" t="n">
-        <v>1.122814357280737</v>
+        <v>-1.947239398956303</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7759754657745419</v>
+        <v>1.930309116840367</v>
       </c>
       <c r="F15" t="n">
-        <v>3.130226135253906</v>
+        <v>1.252579212188721</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.047912120819092</v>
+        <v>-2.954449653625488</v>
       </c>
       <c r="H15" t="n">
-        <v>1.918880462646484</v>
+        <v>2.593122959136963</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.2141320705413827</v>
+        <v>-0.791193664073943</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.326400130987168</v>
+        <v>-1.430967807769773</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.468529105186464</v>
+        <v>0.315328881144527</v>
       </c>
       <c r="F16" t="n">
-        <v>2.08137059211731</v>
+        <v>1.917964100837708</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.974608421325684</v>
+        <v>-2.736523628234864</v>
       </c>
       <c r="H16" t="n">
-        <v>1.146135926246643</v>
+        <v>1.525177836418152</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.301481246948242</v>
+        <v>0.01700598001480103</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.784020185470581</v>
+        <v>-0.8887928128242493</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5732603073120117</v>
+        <v>0.1178494691848755</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7811439037322998</v>
+        <v>-0.9870055317878724</v>
       </c>
       <c r="G17" t="n">
-        <v>1.68369734287262</v>
+        <v>-1.847256541252136</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.490358471870422</v>
+        <v>0.9668469429016112</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7297354936599727</v>
+        <v>3.75538071990013</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.234472751617432</v>
+        <v>1.982138156890872</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.658630132675173</v>
+        <v>1.528477013111122</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4285219609737396</v>
+        <v>1.084591269493103</v>
       </c>
       <c r="G18" t="n">
-        <v>1.809230089187622</v>
+        <v>-5.03795862197876</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.255480766296387</v>
+        <v>1.1534663438797</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.63190019130707</v>
+        <v>4.293412685394287</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.561783850193024</v>
+        <v>-2.266220092773437</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.591027021408075</v>
+        <v>-9.760974884033203</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.154382586479187</v>
+        <v>-1.704924941062927</v>
       </c>
       <c r="G19" t="n">
-        <v>3.296534299850464</v>
+        <v>-0.2585487067699432</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.97553825378418</v>
+        <v>-1.87276017665863</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6863539814949051</v>
+        <v>2.267539381980895</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.503557689487935</v>
+        <v>-2.359471559524536</v>
       </c>
       <c r="E20" t="n">
-        <v>1.746999144554136</v>
+        <v>-1.19436234235763</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.183093309402466</v>
+        <v>0.7817547917366028</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8458956480026245</v>
+        <v>1.986839175224304</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.687667965888977</v>
+        <v>-2.802802562713623</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2367095947265618</v>
+        <v>-1.645043730735778</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.311740666627883</v>
+        <v>-1.020936071872711</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.07715380191802312</v>
+        <v>0.8753915429115292</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4327980279922485</v>
+        <v>0.7434229850769043</v>
       </c>
       <c r="G21" t="n">
-        <v>2.791501522064209</v>
+        <v>0.6293439269065857</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.889545440673828</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.296695142984393</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-3.332512527704244</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-2.418631196022031</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-2.166738986968994</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.760666370391846</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-2.120465993881226</v>
+        <v>-2.307848930358887</v>
       </c>
     </row>
   </sheetData>
